--- a/src/Presentation/CTM.Win/DataTemplate/Delivery/SinoLink_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Delivery/SinoLink_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Delivery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,21 +19,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>成交日期</t>
+  </si>
+  <si>
+    <t>成交时间</t>
+  </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券名称</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>成交数量</t>
+  </si>
+  <si>
+    <t>成交均价</t>
+  </si>
+  <si>
+    <t>成交金额</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>发生金额</t>
+  </si>
+  <si>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>印花税</t>
+  </si>
+  <si>
+    <t>过户费</t>
+  </si>
+  <si>
+    <t>本次金额</t>
+  </si>
+  <si>
+    <t>股东帐户</t>
+  </si>
+  <si>
+    <t>其他费用</t>
+  </si>
+  <si>
+    <t>交易市场</t>
+  </si>
   <si>
     <t>交易类别</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>星辉娱乐</t>
+  </si>
+  <si>
+    <t>证券买入</t>
+  </si>
+  <si>
+    <t>深圳Ａ股</t>
+  </si>
+  <si>
     <t>日内</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>波段</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +680,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,238 +1032,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="14" max="14" width="40.75" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="str">
-        <f>"成交日期"</f>
-        <v>成交日期</v>
-      </c>
-      <c r="B1" t="str">
-        <f>"证券代码"</f>
-        <v>证券代码</v>
-      </c>
-      <c r="C1" t="str">
-        <f>"证券名称"</f>
-        <v>证券名称</v>
-      </c>
-      <c r="D1" t="str">
-        <f>"买卖标志"</f>
-        <v>买卖标志</v>
-      </c>
-      <c r="E1" t="str">
-        <f>"成交数量"</f>
-        <v>成交数量</v>
-      </c>
-      <c r="F1" t="str">
-        <f>"成交价格"</f>
-        <v>成交价格</v>
-      </c>
-      <c r="G1" t="str">
-        <f>"成交金额"</f>
-        <v>成交金额</v>
-      </c>
-      <c r="H1" t="str">
-        <f>"发生金额"</f>
-        <v>发生金额</v>
-      </c>
-      <c r="I1" t="str">
-        <f>"佣金"</f>
-        <v>佣金</v>
-      </c>
-      <c r="J1" t="str">
-        <f>"印花税"</f>
-        <v>印花税</v>
-      </c>
-      <c r="K1" t="str">
-        <f>"过户费"</f>
-        <v>过户费</v>
-      </c>
-      <c r="L1" t="str">
-        <f>"成交编号"</f>
-        <v>成交编号</v>
-      </c>
-      <c r="M1" t="str">
-        <f>"股东代码"</f>
-        <v>股东代码</v>
-      </c>
-      <c r="N1" t="str">
-        <f>"备注"</f>
-        <v>备注</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20170626</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.61465277777777783</v>
+      </c>
+      <c r="C2">
+        <v>300043</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>44000</v>
+      </c>
+      <c r="G2">
+        <v>8.31</v>
+      </c>
+      <c r="H2">
+        <v>365640</v>
+      </c>
+      <c r="I2">
+        <v>88000</v>
+      </c>
+      <c r="J2">
+        <v>-365713.13</v>
+      </c>
+      <c r="K2">
+        <v>73.13</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" t="str">
-        <f>"20160503"</f>
-        <v>20160503</v>
-      </c>
-      <c r="B2" t="str">
-        <f>"204001"</f>
-        <v>204001</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"GC001"</f>
-        <v>GC001</v>
-      </c>
-      <c r="D2" t="str">
-        <f>"卖出"</f>
-        <v>卖出</v>
-      </c>
-      <c r="E2">
-        <v>73000</v>
-      </c>
-      <c r="F2">
-        <v>1.66</v>
-      </c>
-      <c r="G2">
-        <v>7300000</v>
-      </c>
-      <c r="H2">
-        <v>-7300073</v>
-      </c>
-      <c r="I2">
-        <v>73</v>
-      </c>
-      <c r="J2">
+      <c r="M2">
+        <v>7.33</v>
+      </c>
+      <c r="N2">
+        <v>1239074.01</v>
+      </c>
+      <c r="O2">
+        <v>156965081</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="str">
-        <f>"1346"</f>
-        <v>1346</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M4" si="0">"A341049465"</f>
-        <v>A341049465</v>
-      </c>
-      <c r="N2" t="str">
-        <f>"融券回购购回日:20160504息:336.61-888880"</f>
-        <v>融券回购购回日:20160504息:336.61-888880</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" t="str">
-        <f>"20160504"</f>
-        <v>20160504</v>
-      </c>
-      <c r="B3" t="str">
-        <f>"736779"</f>
-        <v>736779</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"威龙配号"</f>
-        <v>威龙配号</v>
-      </c>
-      <c r="D3" t="str">
-        <f>"买入"</f>
-        <v>买入</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="str">
-        <f>"0"</f>
-        <v>0</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" si="0"/>
-        <v>A341049465</v>
-      </c>
-      <c r="N3" t="str">
-        <f>"起始配号:100036923019"</f>
-        <v>起始配号:100036923019</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" t="str">
-        <f>"20160505"</f>
-        <v>20160505</v>
-      </c>
-      <c r="B4" t="str">
-        <f>"600019"</f>
-        <v>600019</v>
-      </c>
-      <c r="C4" t="str">
-        <f>"宝钢股份"</f>
-        <v>宝钢股份</v>
-      </c>
-      <c r="D4" t="str">
-        <f>"买入"</f>
-        <v>买入</v>
-      </c>
-      <c r="E4">
-        <v>200000</v>
-      </c>
-      <c r="F4">
-        <v>5.55</v>
-      </c>
-      <c r="G4">
-        <v>1110000</v>
-      </c>
-      <c r="H4">
-        <v>-1110299.71</v>
-      </c>
-      <c r="I4">
-        <v>277.5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>22.21</v>
-      </c>
-      <c r="L4" t="str">
-        <f>"50"</f>
-        <v>50</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="0"/>
-        <v>A341049465</v>
-      </c>
-      <c r="N4" t="str">
-        <f>"证券买入"</f>
-        <v>证券买入</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2</v>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
